--- a/Merijumi.xlsx
+++ b/Merijumi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC5490-AF63-4FC7-AC9E-F80DD68BFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED92CB-0C88-44F8-AFC0-47FD2CEEBBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
   </bookViews>
   <sheets>
     <sheet name="Content_based_TF_IDF" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix_factorization" sheetId="2" r:id="rId2"/>
+    <sheet name="Hybrid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="705">
   <si>
     <t>Lietotāju skaits = 10, ieteikumu skaits = 5</t>
   </si>
@@ -1930,17 +1931,240 @@
   </si>
   <si>
     <t>OVERALL        0.6630     0.8618</t>
+  </si>
+  <si>
+    <t>[{'K': 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9340163934426233,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.3799638415827514,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.4676492468159005},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.93379781420765,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.43275423000128177,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.5147750581164012},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9315729898516778,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.47935763476249804,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.553997677754133},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9296994535519127,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.519100691101128,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.5870314653847017},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9281511839708576,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.5533207211793922,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.6146836347662783},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9270036429872487,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.5827825446860294,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.638570847084286},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9261094552078167,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.6085515445164763,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.6594327548624893},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9259480046365299,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.6322367011383381,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.6784673740501662},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9257168150610772,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.653608646692628,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.6954848894426802},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9250502684928912,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.6719460120878878,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7100616934583792},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9231064745818857,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.6878501775220348,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7222513892076381},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9225258734889884,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.7024336594412206,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.733810924342122},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9209950152440499,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.7150552095275611,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7435921081803183},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9193503136475664,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.726621024899465,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7523662138376558},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9186504766233116,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.7380634320208769,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7612079784344215},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'K': 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Precision': 0.9178308044921633,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'Recall': 0.7483599931539526,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'F1': 0.7691268198694231}]</t>
+  </si>
+  <si>
+    <t>Ieteikumu skaits</t>
+  </si>
+  <si>
+    <t>F1 mērījums</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>n_users</t>
+  </si>
+  <si>
+    <t>top_rec</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>n-users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,16 +2178,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2058,11 +2308,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2084,6 +2373,19 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2453,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE02654-32D7-4FC1-B716-6485A1C92A4B}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
@@ -2468,14 +2770,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2583,14 +2885,14 @@
       <c r="B9" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2701,14 +3003,14 @@
       <c r="F26" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2819,14 +3121,14 @@
       <c r="F40" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2937,14 +3239,14 @@
       <c r="F53" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -3043,7 +3345,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="C63:D63" si="3">AVERAGE(D58:D62)</f>
+        <f t="shared" ref="D63" si="3">AVERAGE(D58:D62)</f>
         <v>8.9999999999999976E-3</v>
       </c>
     </row>
@@ -3055,14 +3357,14 @@
       <c r="F67" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -3173,14 +3475,14 @@
       <c r="F81" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
@@ -3201,175 +3503,175 @@
       <c r="B85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="21">
         <f>B8</f>
         <v>0.1</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="23">
         <f>C8</f>
         <v>3.2440000000000004E-2</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="21">
         <f>D8</f>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
     </row>
     <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="21">
         <f>B22</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="23">
         <f>C22</f>
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="21">
         <f>D22</f>
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
     </row>
     <row r="88" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="21">
         <f>B36</f>
         <v>0.12640000000000001</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="21">
         <f>C36</f>
         <v>1.72E-3</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="21">
         <f>D36</f>
         <v>3.3799999999999998E-3</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
     </row>
     <row r="90" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
     </row>
     <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="18">
         <f>B49</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="18">
         <f>C49</f>
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="18">
         <f>D49</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="18">
         <f>B63</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="18">
         <f>C63</f>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E93" s="18">
         <f>D63</f>
         <v>8.9999999999999976E-3</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="18">
         <f>B77</f>
         <v>0.1376</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="18">
         <f>C77</f>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="18">
         <f>D77</f>
         <v>1.7120000000000003E-2</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
@@ -3436,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0270422-7FAF-41C3-B591-4E1286951DC1}">
-  <dimension ref="B1:B613"/>
+  <dimension ref="B1:O613"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="C613" sqref="A1:C613"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,326 +3749,657 @@
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>632</v>
+      </c>
+      <c r="L2" s="13">
+        <v>5</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.46789999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>633</v>
+      </c>
+      <c r="L3" s="13">
+        <v>7</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.55430000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>634</v>
+      </c>
+      <c r="L4" s="13">
+        <v>9</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>635</v>
+      </c>
+      <c r="L5" s="13">
+        <v>11</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="L6" s="13">
+        <v>13</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>637</v>
+      </c>
+      <c r="L7" s="13">
+        <v>15</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.71930000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>638</v>
+      </c>
+      <c r="L8" s="13">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.7127</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.74209999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>639</v>
+      </c>
+      <c r="L9" s="13">
+        <v>19</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.76049999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>640</v>
+      </c>
+      <c r="L10" s="13">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>641</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="15">
+        <f>AVERAGE(M2:M10)</f>
+        <v>0.92006666666666659</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" ref="N11:O11" si="0">AVERAGE(N2:N10)</f>
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="O11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66423333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -6512,6 +7145,429 @@
     <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613" t="s">
         <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482949DF-3F24-4337-BE7A-CD50A5519C08}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.92E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.0117</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.22</v>
+      </c>
+      <c r="C4">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.78549999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.6865</v>
+      </c>
+      <c r="F6">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.26</v>
+      </c>
+      <c r="C7">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.23</v>
+      </c>
+      <c r="C8">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.8246</v>
+      </c>
+      <c r="F8">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.22</v>
+      </c>
+      <c r="C10">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.8085</v>
+      </c>
+      <c r="F10">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="C11">
+        <v>3.15E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.04E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.24425000000000002</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
+        <v>2.5170000000000005E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.3630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>AVERAGE(B2:B9)</f>
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C2:C9)</f>
+        <v>2.2875000000000003E-2</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(D2:D9)</f>
+        <v>4.07625E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>703</v>
+      </c>
+      <c r="O18" t="s">
+        <v>704</v>
+      </c>
+      <c r="P18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.16</v>
+      </c>
+      <c r="H19">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="I19">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.9375</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="M20">
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Merijumi.xlsx
+++ b/Merijumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ED92CB-0C88-44F8-AFC0-47FD2CEEBBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65B79C-A59D-4632-ABCA-2691B0367253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
   </bookViews>
   <sheets>
     <sheet name="Content_based_TF_IDF" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="706">
   <si>
     <t>Lietotāju skaits = 10, ieteikumu skaits = 5</t>
   </si>
@@ -2153,6 +2153,9 @@
   </si>
   <si>
     <t>n-users</t>
+  </si>
+  <si>
+    <t>Kolonna1</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2167,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,6 +2201,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2213,7 +2224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2274,28 +2285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2304,34 +2293,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2347,11 +2308,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2372,34 +2346,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2407,10 +2359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2419,11 +2368,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2434,6 +2592,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{579B6BD0-B626-4AEE-A1CA-ED69414975B1}" name="Tabula5" displayName="Tabula5" ref="B71:F77" totalsRowShown="0">
+  <autoFilter ref="B71:F77" xr:uid="{579B6BD0-B626-4AEE-A1CA-ED69414975B1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C2DC7CB2-E8D2-4018-9E79-0AB8BFD7C757}" name="Iterācija"/>
+    <tableColumn id="2" xr3:uid="{4C768C0F-D836-4101-A23E-09312643141E}" name="Precizitāte"/>
+    <tableColumn id="3" xr3:uid="{FA321C3A-D025-40AF-A913-125BEEE6A775}" name="Atsaukums"/>
+    <tableColumn id="4" xr3:uid="{5575D42E-2AE9-44A4-B375-94E77D51D251}" name="F1"/>
+    <tableColumn id="5" xr3:uid="{DD4D3AB0-9195-4F3E-B4D9-38271BCF8720}" name="Kolonna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{47C13B4F-5AC0-4C5E-99BC-B8BF155DF8C5}" name="Tabula3" displayName="Tabula3" ref="L2:O12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="L2:O12" xr:uid="{47C13B4F-5AC0-4C5E-99BC-B8BF155DF8C5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{80A52190-A390-4DD2-94BA-15A6F7F178E3}" name="Ieteikumu skaits" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{16E0490A-EDB2-43F3-A0D8-7A8889E531AD}" name="Precizitāte" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4468E9AF-B040-4506-8022-ACF6CE725A2A}" name="Atsaukums" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E05DC396-59F9-42B7-A3B1-364FF78F51C5}" name="F1 mērījums" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB73168D-6865-4FDF-9E97-C415C9B44E5B}" name="Tabula2" displayName="Tabula2" ref="B2:I14" totalsRowShown="0">
+  <autoFilter ref="B2:I14" xr:uid="{AB73168D-6865-4FDF-9E97-C415C9B44E5B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7509AD31-85EA-402F-8F53-BBC5F932BC04}" name="Iterācija"/>
+    <tableColumn id="2" xr3:uid="{A0DC99ED-9076-4B46-A520-1692BE5F4D47}" name="Precision"/>
+    <tableColumn id="3" xr3:uid="{E8CF68AB-7FE7-42EA-9AD0-EE80A71C5027}" name="Recall"/>
+    <tableColumn id="4" xr3:uid="{A39E4C4B-28ED-456D-BD88-85D9F14DBB1A}" name="F1"/>
+    <tableColumn id="5" xr3:uid="{A519B74B-F7AB-4EEB-A12E-EDFF8F7AD894}" name="MAE"/>
+    <tableColumn id="6" xr3:uid="{C98F43C9-02A5-450D-B899-2E0C1EE0EA44}" name="RMSE"/>
+    <tableColumn id="7" xr3:uid="{13750819-CF4F-49C6-A5CC-C4483DE16D20}" name="n_users"/>
+    <tableColumn id="8" xr3:uid="{9006C39B-23B2-4CC8-B646-FC8A472A8105}" name="top_rec"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2753,995 +2955,1001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE02654-32D7-4FC1-B716-6485A1C92A4B}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="B1:I97"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.08</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.16</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.06</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <f>AVERAGE(B3:B7)</f>
+      <c r="C8">
+        <f>AVERAGE(C3:C7)</f>
         <v>0.1</v>
       </c>
-      <c r="C8">
-        <f t="shared" ref="C8:D8" si="0">AVERAGE(C3:C7)</f>
+      <c r="D8">
+        <f t="shared" ref="D8:E8" si="0">AVERAGE(D3:D7)</f>
         <v>3.2440000000000004E-2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.11</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.19</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.19</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1.9E-3</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.05</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.15</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>5</v>
-      </c>
-      <c r="B22">
-        <f>AVERAGE(B17:B21)</f>
-        <v>0.13800000000000001</v>
       </c>
       <c r="C22">
         <f>AVERAGE(C17:C21)</f>
-        <v>2.4399999999999999E-3</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D22">
         <f>AVERAGE(D17:D21)</f>
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E17:E21)</f>
         <v>7.7200000000000003E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.14399999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.8E-3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.108</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.128</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>2E-3</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="B36">
-        <f>AVERAGE(B31:B35)</f>
+      <c r="C36">
+        <f>AVERAGE(C31:C35)</f>
         <v>0.12640000000000001</v>
       </c>
-      <c r="C36">
-        <f t="shared" ref="C36:D36" si="1">AVERAGE(C31:C35)</f>
+      <c r="D36">
+        <f t="shared" ref="D36:E36" si="1">AVERAGE(D31:D35)</f>
         <v>1.72E-3</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>3.3799999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.15</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>3</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47">
         <v>4</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.115</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="B49">
-        <f>AVERAGE(B44:B48)</f>
+      <c r="C49">
+        <f>AVERAGE(C44:C48)</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="C49">
-        <f t="shared" ref="C49:D49" si="2">AVERAGE(C44:C48)</f>
+      <c r="D49">
+        <f t="shared" ref="D49:E49" si="2">AVERAGE(D44:D48)</f>
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="2"/>
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>2</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58">
         <v>1</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>0.16</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59">
         <v>2</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>0.13750000000000001</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.1575</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>5.3E-3</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61">
         <v>4</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>0.11749999999999999</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>4.3E-3</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62">
         <v>5</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0.1225</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>5</v>
-      </c>
-      <c r="B63">
-        <f>AVERAGE(B58:B62)</f>
-        <v>0.13900000000000001</v>
       </c>
       <c r="C63">
         <f>AVERAGE(C58:C62)</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D63">
+        <f>AVERAGE(D58:D62)</f>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="D63">
-        <f t="shared" ref="D63" si="3">AVERAGE(D58:D62)</f>
+      <c r="E63">
+        <f t="shared" ref="E63" si="3">AVERAGE(E58:E62)</f>
         <v>8.9999999999999976E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="26"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>2</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="F71" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>0.122</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73">
         <v>2</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>0.155</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74">
         <v>3</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>0.105</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75">
         <v>4</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>0.152</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>1.2E-2</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>2.18E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76">
         <v>5</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>0.154</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>1.17E-2</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>5</v>
       </c>
-      <c r="B77">
-        <f>AVERAGE(B72:B76)</f>
+      <c r="C77">
+        <f>AVERAGE(C72:C76)</f>
         <v>0.1376</v>
       </c>
-      <c r="C77">
-        <f t="shared" ref="C77:D77" si="4">AVERAGE(C72:C76)</f>
+      <c r="D77">
+        <f>AVERAGE(D72:D76)</f>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="4"/>
+      <c r="E77">
+        <f>AVERAGE(E72:E76)</f>
         <v>1.7120000000000003E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
-      <c r="B84" t="s">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>1</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>2</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="21">
-        <f>B8</f>
+      <c r="D85" s="13">
+        <f>C8</f>
         <v>0.1</v>
       </c>
-      <c r="D85" s="23">
-        <f>C8</f>
+      <c r="E85" s="13">
+        <f>D8</f>
         <v>3.2440000000000004E-2</v>
       </c>
-      <c r="E85" s="21">
-        <f>D8</f>
+      <c r="F85" s="13">
+        <f>E8</f>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="6" t="s">
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="7" t="s">
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="21">
-        <f>B22</f>
+      <c r="D87" s="13">
+        <f>C22</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="D87" s="23">
-        <f>C22</f>
+      <c r="E87" s="13">
+        <f>D22</f>
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="E87" s="21">
-        <f>D22</f>
+      <c r="F87" s="13">
+        <f>E22</f>
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-    </row>
-    <row r="88" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="6" t="s">
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="7" t="s">
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="21">
-        <f>B36</f>
+      <c r="D89" s="13">
+        <f>C36</f>
         <v>0.12640000000000001</v>
       </c>
-      <c r="D89" s="21">
-        <f>C36</f>
+      <c r="E89" s="13">
+        <f>D36</f>
         <v>1.72E-3</v>
       </c>
-      <c r="E89" s="21">
-        <f>D36</f>
+      <c r="F89" s="13">
+        <f>E36</f>
         <v>3.3799999999999998E-3</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-    </row>
-    <row r="90" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="6" t="s">
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="7" t="s">
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C91" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C91" s="18">
-        <f>B49</f>
-        <v>0.14199999999999999</v>
       </c>
       <c r="D91" s="18">
         <f>C49</f>
-        <v>3.6800000000000001E-3</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E91" s="18">
         <f>D49</f>
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="F91" s="18">
+        <f>E49</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-    </row>
-    <row r="92" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="6" t="s">
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+    </row>
+    <row r="92" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="7" t="s">
+      <c r="F92" s="19"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C93" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C93" s="18">
-        <f>B63</f>
-        <v>0.13900000000000001</v>
       </c>
       <c r="D93" s="18">
         <f>C63</f>
-        <v>4.7000000000000002E-3</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E93" s="18">
         <f>D63</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F93" s="18">
+        <f>E63</f>
         <v>8.9999999999999976E-3</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-    </row>
-    <row r="94" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="6" t="s">
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+    </row>
+    <row r="94" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B95" s="7" t="s">
+      <c r="F94" s="19"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C95" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C95" s="18">
-        <f>B77</f>
-        <v>0.1376</v>
       </c>
       <c r="D95" s="18">
         <f>C77</f>
-        <v>9.3600000000000003E-3</v>
+        <v>0.1376</v>
       </c>
       <c r="E95" s="18">
         <f>D77</f>
+        <v>9.3600000000000003E-3</v>
+      </c>
+      <c r="F95" s="18">
+        <f>E77</f>
         <v>1.7120000000000003E-2</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B96" s="7" t="s">
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B97" s="8" t="s">
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C97" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="9">
-        <f>AVERAGE(C85:C96)</f>
+      <c r="D97" s="9">
+        <f>AVERAGE(D85:D96)</f>
         <v>0.13050000000000003</v>
       </c>
-      <c r="D97" s="10">
-        <f t="shared" ref="D97" si="5">AVERAGE(D85:D96)</f>
+      <c r="E97" s="10">
+        <f t="shared" ref="E97" si="4">AVERAGE(E85:E96)</f>
         <v>9.0566666666666677E-3</v>
       </c>
-      <c r="E97" s="9">
-        <f>AVERAGE(E85:E96)</f>
+      <c r="F97" s="9">
+        <f>AVERAGE(F85:F96)</f>
         <v>7.7533333333333343E-3</v>
       </c>
-      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
     <mergeCell ref="D87:D88"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B83:G83"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="F85:F86"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
     <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="B70:F70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0270422-7FAF-41C3-B591-4E1286951DC1}">
-  <dimension ref="B1:O613"/>
+  <dimension ref="B2:O614"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:O11"/>
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3749,3828 +3957,3819 @@
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" customWidth="1"/>
     <col min="15" max="15" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>696</v>
-      </c>
-    </row>
     <row r="2" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>632</v>
-      </c>
-      <c r="L2" s="13">
-        <v>5</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0.93169999999999997</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0.37990000000000002</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0.46789999999999998</v>
+        <v>631</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>633</v>
-      </c>
-      <c r="L3" s="13">
-        <v>7</v>
-      </c>
-      <c r="M3" s="14">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.47960000000000003</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.55430000000000001</v>
+        <v>632</v>
+      </c>
+      <c r="L3" s="11">
+        <v>5</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0.46789999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
-      </c>
-      <c r="L4" s="13">
-        <v>9</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0.92549999999999999</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0.61480000000000001</v>
+        <v>633</v>
+      </c>
+      <c r="L4" s="11">
+        <v>7</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.55430000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>635</v>
-      </c>
-      <c r="L5" s="13">
-        <v>11</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.65900000000000003</v>
+        <v>634</v>
+      </c>
+      <c r="L5" s="11">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.61480000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
-      </c>
-      <c r="L6" s="13">
-        <v>13</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.64949999999999997</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.69220000000000004</v>
+        <v>635</v>
+      </c>
+      <c r="L6" s="11">
+        <v>11</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>637</v>
-      </c>
-      <c r="L7" s="13">
-        <v>15</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.68359999999999999</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.71930000000000005</v>
+        <v>636</v>
+      </c>
+      <c r="L7" s="11">
+        <v>13</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0.69220000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>638</v>
-      </c>
-      <c r="L8" s="13">
-        <v>17</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.7127</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.74209999999999998</v>
+        <v>637</v>
+      </c>
+      <c r="L8" s="11">
+        <v>15</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0.71930000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>639</v>
-      </c>
-      <c r="L9" s="13">
-        <v>19</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0.91339999999999999</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.76049999999999995</v>
+        <v>638</v>
+      </c>
+      <c r="L9" s="11">
+        <v>17</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.7127</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0.74209999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>639</v>
+      </c>
+      <c r="L10" s="11">
+        <v>19</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0.76049999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>640</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="11">
         <v>20</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M11" s="12">
         <v>0.91210000000000002</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N11" s="12">
         <v>0.74639999999999995</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O11" s="12">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>641</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="15">
-        <f>AVERAGE(M2:M10)</f>
+      <c r="M12" s="25">
+        <f>AVERAGE(M3:M11)</f>
         <v>0.92006666666666659</v>
       </c>
-      <c r="N11" s="15">
-        <f t="shared" ref="N11:O11" si="0">AVERAGE(N2:N10)</f>
+      <c r="N12" s="25">
+        <f t="shared" ref="N12:O12" si="0">AVERAGE(N3:N11)</f>
         <v>0.61639999999999995</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O12" s="25">
         <f t="shared" si="0"/>
         <v>0.66423333333333334</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>642</v>
-      </c>
-    </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>81</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B456" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B457" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B458" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B459" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B460" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B461" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B462" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B463" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B464" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B465" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B466" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B468" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B469" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B470" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B471" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B472" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B479" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B480" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B481" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B482" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B483" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B484" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B485" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B486" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B487" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B488" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B494" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B495" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B496" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B497" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B498" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B500" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B501" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B502" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B503" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B504" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B505" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B506" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B507" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B508" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B609" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B610" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B611" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B612" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B614" t="s">
         <v>630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482949DF-3F24-4337-BE7A-CD50A5519C08}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>697</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>698</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>699</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>700</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>701</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>702</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>0.4</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>0.64139999999999997</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.78390000000000004</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C3">
-        <v>1.55E-2</v>
-      </c>
-      <c r="D3">
-        <v>2.92E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.84060000000000001</v>
-      </c>
-      <c r="F3">
-        <v>1.0117</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.92E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.0117</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>0.22</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>2.47E-2</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>0.78549999999999998</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>0.95099999999999996</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C6">
         <v>0.2</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>0.80789999999999995</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>0.97619999999999996</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>50</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C7">
         <v>0.26</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>3.73E-2</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>0.6865</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>0.84299999999999997</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C8">
         <v>0.26</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>0.75739999999999996</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>0.91659999999999997</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.23</v>
-      </c>
-      <c r="C8">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.8246</v>
-      </c>
-      <c r="F8">
-        <v>0.98319999999999996</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.4200000000000001E-2</v>
+        <v>0.23</v>
       </c>
       <c r="D9">
-        <v>5.6899999999999999E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>0.83309999999999995</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="F9">
-        <v>0.98650000000000004</v>
+        <v>0.8246</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="H9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>0.22</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>0.8085</v>
       </c>
-      <c r="F10">
+      <c r="G11">
         <v>0.96589999999999998</v>
       </c>
-      <c r="G10">
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C12">
         <v>0.17249999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>3.15E-2</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>5.04E-2</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>0.81720000000000004</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>0.98360000000000003</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="O11">
+      <c r="P12">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="22">
+        <f>AVERAGE(C3:C11)</f>
+        <v>0.25222222222222229</v>
+      </c>
+      <c r="D13" s="22">
+        <f>AVERAGE(D3:D11)</f>
+        <v>2.4466666666666668E-2</v>
+      </c>
+      <c r="E13" s="22">
+        <f>AVERAGE(E3:E11)</f>
+        <v>4.2877777777777779E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>703</v>
+      </c>
+      <c r="P19" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0.16</v>
+      </c>
+      <c r="I20">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="K20">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.9375</v>
+      </c>
+      <c r="N20">
         <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f>AVERAGE(B2:B11)</f>
-        <v>0.24425000000000002</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>2.5170000000000005E-2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>4.3630000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f>AVERAGE(B2:B9)</f>
-        <v>0.25625000000000003</v>
-      </c>
-      <c r="C14">
-        <f>AVERAGE(C2:C9)</f>
-        <v>2.2875000000000003E-2</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(D2:D9)</f>
-        <v>4.07625E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="M18" t="s">
-        <v>703</v>
-      </c>
-      <c r="O18" t="s">
-        <v>704</v>
-      </c>
-      <c r="P18" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G19">
-        <v>0.16</v>
-      </c>
-      <c r="H19">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="I19">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.77229999999999999</v>
-      </c>
-      <c r="K19">
-        <v>0.9375</v>
-      </c>
-      <c r="M19">
-        <v>50</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G20">
-        <v>0.4</v>
-      </c>
-      <c r="H20">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="I20">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.64139999999999997</v>
-      </c>
-      <c r="K20">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="M20">
-        <v>60</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
       </c>
       <c r="P20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="M21">
-        <v>70</v>
-      </c>
-      <c r="O21">
+      <c r="Q20">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="J21">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="K21">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="L21">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="N21">
+        <v>60</v>
       </c>
       <c r="P21">
         <v>5</v>
       </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>70</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Merijumi.xlsx
+++ b/Merijumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bakalaurs_praktiskais\Bakalaura-darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65B79C-A59D-4632-ABCA-2691B0367253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AD11C4-B98B-4B1E-B628-E4E49D779872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BF96F9AC-C4F0-49FC-AA7C-DBFC0882E122}"/>
   </bookViews>
   <sheets>
     <sheet name="Content_based_TF_IDF" sheetId="1" r:id="rId1"/>
@@ -2167,7 +2167,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,6 +2208,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2270,34 +2277,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -2321,6 +2300,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2342,31 +2345,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2374,29 +2357,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2440,26 +2460,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -2468,8 +2469,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2490,7 +2489,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -2499,8 +2498,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2521,7 +2518,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -2530,13 +2527,60 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2560,16 +2604,14 @@
           <color indexed="64"/>
         </right>
         <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -2579,6 +2621,13 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2609,7 +2658,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{47C13B4F-5AC0-4C5E-99BC-B8BF155DF8C5}" name="Tabula3" displayName="Tabula3" ref="L2:O12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BC5D1EF0-AD0D-4727-822B-E8AC06F7EC6D}" name="Tabula4" displayName="Tabula4" ref="C84:F97" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="8">
+  <autoFilter ref="C84:F97" xr:uid="{BC5D1EF0-AD0D-4727-822B-E8AC06F7EC6D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3C3780BB-406F-4A00-9D4B-7447BB694E1F}" name="Skaits" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{390E35AE-C3F8-4BC9-BC83-A14B694E38CC}" name="Precizitāte"/>
+    <tableColumn id="3" xr3:uid="{EF7DCDE8-49A6-48FD-8CD5-8186C7132D80}" name="Atsaukums"/>
+    <tableColumn id="4" xr3:uid="{2C408C6F-B887-4D44-A68B-7BF7A771C440}" name="F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{47C13B4F-5AC0-4C5E-99BC-B8BF155DF8C5}" name="Tabula3" displayName="Tabula3" ref="L2:O12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="L2:O12" xr:uid="{47C13B4F-5AC0-4C5E-99BC-B8BF155DF8C5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{80A52190-A390-4DD2-94BA-15A6F7F178E3}" name="Ieteikumu skaits" dataDxfId="5"/>
@@ -2621,7 +2683,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB73168D-6865-4FDF-9E97-C415C9B44E5B}" name="Tabula2" displayName="Tabula2" ref="B2:I14" totalsRowShown="0">
   <autoFilter ref="B2:I14" xr:uid="{AB73168D-6865-4FDF-9E97-C415C9B44E5B}"/>
   <tableColumns count="8">
@@ -2957,29 +3019,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE02654-32D7-4FC1-B716-6485A1C92A4B}">
   <dimension ref="B1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -3087,14 +3150,14 @@
       <c r="C9" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -3205,14 +3268,14 @@
       <c r="G26" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -3323,14 +3386,14 @@
       <c r="G40" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
@@ -3441,14 +3504,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
@@ -3559,14 +3622,13 @@
       <c r="G67" s="1"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="26"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
@@ -3679,28 +3741,28 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="17" t="s">
+    <row r="83" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="4"/>
-      <c r="C84" t="s">
+      <c r="C84" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3708,189 +3770,189 @@
       <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="5">
         <f>C8</f>
         <v>0.1</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="5">
         <f>D8</f>
         <v>3.2440000000000004E-2</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="5">
         <f>E8</f>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="5">
         <f>C22</f>
         <v>0.13800000000000001</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="5">
         <f>D22</f>
         <v>2.4399999999999999E-3</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="5">
         <f>E22</f>
         <v>7.7200000000000003E-3</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="5">
         <f>C36</f>
         <v>0.12640000000000001</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="5">
         <f>D36</f>
         <v>1.72E-3</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="5">
         <f>E36</f>
         <v>3.3799999999999998E-3</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
     </row>
     <row r="91" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C91" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="10">
         <f>C49</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="10">
         <f>D49</f>
         <v>3.6800000000000001E-3</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="10">
         <f>E49</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="10">
         <f>C63</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="10">
         <f>D63</f>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="10">
         <f>E63</f>
         <v>8.9999999999999976E-3</v>
       </c>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C94" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="10">
         <f>C77</f>
         <v>0.1376</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="10">
         <f>D77</f>
         <v>9.3600000000000003E-3</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="10">
         <f>E77</f>
         <v>1.7120000000000003E-2</v>
       </c>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C96" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="24">
         <f>AVERAGE(D85:D96)</f>
         <v>0.13050000000000003</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="25">
         <f t="shared" ref="E97" si="4">AVERAGE(E85:E96)</f>
         <v>9.0566666666666677E-3</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="24">
         <f>AVERAGE(F85:F96)</f>
         <v>7.7533333333333343E-3</v>
       </c>
@@ -3898,48 +3960,31 @@
       <c r="H97" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
+  <mergeCells count="19">
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="B70:F70"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="H93:H94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3948,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0270422-7FAF-41C3-B591-4E1286951DC1}">
   <dimension ref="B2:O614"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3970,16 +4015,16 @@
       <c r="F2" t="s">
         <v>631</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="15" t="s">
         <v>696</v>
       </c>
     </row>
@@ -3990,16 +4035,16 @@
       <c r="F3" t="s">
         <v>632</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>5</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="9">
         <v>0.93169999999999997</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="9">
         <v>0.37990000000000002</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="9">
         <v>0.46789999999999998</v>
       </c>
     </row>
@@ -4010,16 +4055,16 @@
       <c r="F4" t="s">
         <v>633</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>7</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <v>0.92830000000000001</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="9">
         <v>0.47960000000000003</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="9">
         <v>0.55430000000000001</v>
       </c>
     </row>
@@ -4030,16 +4075,16 @@
       <c r="F5" t="s">
         <v>634</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <v>9</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <v>0.92549999999999999</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="9">
         <v>0.55200000000000005</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="9">
         <v>0.61480000000000001</v>
       </c>
     </row>
@@ -4050,16 +4095,16 @@
       <c r="F6" t="s">
         <v>635</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <v>11</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <v>0.92120000000000002</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <v>0.60750000000000004</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="9">
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -4070,16 +4115,16 @@
       <c r="F7" t="s">
         <v>636</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <v>13</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <v>0.91739999999999999</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="9">
         <v>0.64949999999999997</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="9">
         <v>0.69220000000000004</v>
       </c>
     </row>
@@ -4090,16 +4135,16 @@
       <c r="F8" t="s">
         <v>637</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <v>15</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <v>0.91590000000000005</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="9">
         <v>0.68359999999999999</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="9">
         <v>0.71930000000000005</v>
       </c>
     </row>
@@ -4110,16 +4155,16 @@
       <c r="F9" t="s">
         <v>638</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <v>17</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="9">
         <v>0.91510000000000002</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="9">
         <v>0.7127</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="9">
         <v>0.74209999999999998</v>
       </c>
     </row>
@@ -4130,16 +4175,16 @@
       <c r="F10" t="s">
         <v>639</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <v>19</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <v>0.91339999999999999</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <v>0.73640000000000005</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="9">
         <v>0.76049999999999995</v>
       </c>
     </row>
@@ -4150,16 +4195,16 @@
       <c r="F11" t="s">
         <v>640</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="8">
         <v>20</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="9">
         <v>0.91210000000000002</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="9">
         <v>0.74639999999999995</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <v>0.76800000000000002</v>
       </c>
     </row>
@@ -4170,18 +4215,18 @@
       <c r="F12" t="s">
         <v>641</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="27">
         <f>AVERAGE(M3:M11)</f>
         <v>0.92006666666666659</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="27">
         <f t="shared" ref="N12:O12" si="0">AVERAGE(N3:N11)</f>
         <v>0.61639999999999995</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="27">
         <f t="shared" si="0"/>
         <v>0.66423333333333334</v>
       </c>
@@ -7367,8 +7412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482949DF-3F24-4337-BE7A-CD50A5519C08}">
   <dimension ref="B2:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7676,18 +7721,18 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="13">
         <f>AVERAGE(C3:C11)</f>
         <v>0.25222222222222229</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="13">
         <f>AVERAGE(D3:D11)</f>
         <v>2.4466666666666668E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="13">
         <f>AVERAGE(E3:E11)</f>
         <v>4.2877777777777779E-2</v>
       </c>
